--- a/Income/MA_inc.xlsx
+++ b/Income/MA_inc.xlsx
@@ -1979,19 +1979,19 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.5215</v>
+        <v>0.5222</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0.5281</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.5408</v>
+        <v>0.54</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.5537</v>
+        <v>0.553</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.569</v>
+        <v>0.5683</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>0.5724</v>
@@ -2366,16 +2366,16 @@
         <v>0.4045</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.4369</v>
+        <v>0.4496</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.4611</v>
+        <v>0.4732</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.4464</v>
+        <v>0.458</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.4299</v>
+        <v>0.4416</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.3606</v>
@@ -3382,16 +3382,16 @@
         <v>0.5682</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0.5784</v>
+        <v>0.591</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>0.6046</v>
+        <v>0.6168</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>0.6298</v>
+        <v>0.6414</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>0.6592</v>
+        <v>0.6709</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>0.6277</v>
@@ -3509,16 +3509,16 @@
         <v>0.4508</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.4845</v>
+        <v>0.4971</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.5101</v>
+        <v>0.5223</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.4931</v>
+        <v>0.5047</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.473</v>
+        <v>0.4847</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0.4015</v>
